--- a/output/Underground.xlsx
+++ b/output/Underground.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nokron, Eternal City</t>
+          <t>Ainsel River</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,31 +463,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dropped by Regal Ancestor Spirit. Replaces Remembrance of the Regal Ancestor</t>
+          <t>Dropped by Astel, Naturalborn of the Void. Replaces Remembrance of the Naturalborn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nokron, Eternal City</t>
+          <t>Ainsel River Downstream</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Major bosses</t>
+          <t>Merchant shops</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dropped by Mimic Tear. Replaces Silver Tear Mask, Larval Tear 2x</t>
+          <t>Sold by the Hermit Merchant in the alcove past the rock-slinging Malformed Star</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nokron, Eternal City</t>
+          <t>Ainsel River Downstream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dropped by Valiant Gargoyles after Siofra Aqueduct. Replaces Gargoyle's Greatsword, Gargoyle's Twinblade</t>
+          <t>Dropped by Dragonkin Soldier of Nokstella. Replaces Frozen Lightning Spear</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Siofra River</t>
+          <t>Nokron, Eternal City</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,22 +514,73 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dropped by Ancestor Spirit. Replaces Ancestral Follower Ashes</t>
+          <t>Dropped by Regal Ancestor Spirit. Replaces Remembrance of the Regal Ancestor</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Nokron, Eternal City</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Major bosses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dropped by Mimic Tear. Replaces Silver Tear Mask, Larval Tear 2x</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nokron, Eternal City</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Major bosses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dropped by Valiant Gargoyles after Siofra Aqueduct. Replaces Gargoyle's Greatsword, Gargoyle's Twinblade</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Siofra River</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Major bosses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dropped by Ancestor Spirit. Replaces Ancestral Follower Ashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Siofra River</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Merchant shops</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Sold by the Abandoned Merchant overlooking the Giant Miranda Flower. He can be found by ascending up wooden scaffolding near Worshippers' Woods and dropping down towards a short tunnel</t>
         </is>
